--- a/src/711.xlsx
+++ b/src/711.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NeilCumming\Atm-Bus\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NeilCumming\Atm-Bus\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE361CBC-06DA-4773-A949-B9F6308FD077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80299297-260B-416F-813E-67F8D268A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="990" windowWidth="12645" windowHeight="13485" xr2:uid="{CB2D3FB0-89E8-4325-887F-CAFE9D99A230}"/>
+    <workbookView xWindow="384" yWindow="2220" windowWidth="15912" windowHeight="10740" xr2:uid="{CB2D3FB0-89E8-4325-887F-CAFE9D99A230}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -215,7 +215,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AB1D25-2BFA-4B40-89BF-7C3A7093603D}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37638888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222227</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.38263888888888892</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.38611111111111113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.39027777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>0.75486111111111109</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.39444444444444443</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.3972222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.40277777777777773</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">

--- a/src/711.xlsx
+++ b/src/711.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NeilCumming\Atm-Bus\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NeilCumming\Atm-Bus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80299297-260B-416F-813E-67F8D268A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7758796-8B58-4B8A-8007-F04C81BE2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="2220" windowWidth="15912" windowHeight="10740" xr2:uid="{CB2D3FB0-89E8-4325-887F-CAFE9D99A230}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>Linea</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Fermata</t>
   </si>
@@ -530,29 +527,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AB1D25-2BFA-4B40-89BF-7C3A7093603D}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -564,595 +561,466 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5802</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>711</v>
-      </c>
-      <c r="B2">
-        <v>5802</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5803</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>711</v>
-      </c>
-      <c r="B3">
-        <v>5803</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5804</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>711</v>
-      </c>
-      <c r="B4">
-        <v>5804</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>0.37638888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5805</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.37638888888888888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>711</v>
-      </c>
-      <c r="B5">
-        <v>5805</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5806</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.37847222222222227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>711</v>
-      </c>
-      <c r="B6">
-        <v>5806</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>0.38263888888888892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5807</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.38263888888888892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>711</v>
-      </c>
-      <c r="B7">
-        <v>5807</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1">
+        <v>0.38611111111111113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5808</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.38611111111111113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>711</v>
-      </c>
-      <c r="B8">
-        <v>5808</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5809</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>711</v>
-      </c>
-      <c r="B9">
-        <v>5809</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1">
+        <v>0.39027777777777778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5810</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.39027777777777778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>711</v>
-      </c>
-      <c r="B10">
-        <v>5810</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5812</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>711</v>
-      </c>
-      <c r="B11">
-        <v>5812</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5813</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.39444444444444443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>711</v>
-      </c>
-      <c r="B12">
-        <v>5813</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1">
+        <v>0.3972222222222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5816</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.3972222222222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>711</v>
-      </c>
-      <c r="B13">
-        <v>5816</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1">
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5818</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>711</v>
-      </c>
-      <c r="B14">
-        <v>5818</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5820</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>711</v>
-      </c>
-      <c r="B15">
-        <v>5820</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5822</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>711</v>
-      </c>
-      <c r="B16">
-        <v>5822</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5825</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>711</v>
-      </c>
-      <c r="B17">
-        <v>5825</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5826</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>711</v>
-      </c>
-      <c r="B18">
-        <v>5826</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5827</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>711</v>
-      </c>
-      <c r="B19">
-        <v>5827</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5828</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>711</v>
-      </c>
-      <c r="B20">
-        <v>5828</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5858</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>711</v>
-      </c>
-      <c r="B21">
-        <v>5858</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8697</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>711</v>
-      </c>
-      <c r="B22">
-        <v>8697</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5859</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>711</v>
-      </c>
-      <c r="B23">
-        <v>5859</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5880</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>711</v>
-      </c>
-      <c r="B24">
-        <v>5880</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5881</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>711</v>
-      </c>
-      <c r="B25">
-        <v>5881</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5882</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>711</v>
-      </c>
-      <c r="B26">
-        <v>5882</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5883</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>711</v>
-      </c>
-      <c r="B27">
-        <v>5883</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5884</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>711</v>
-      </c>
-      <c r="B28">
-        <v>5884</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5885</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>711</v>
-      </c>
-      <c r="B29">
-        <v>5885</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5886</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>711</v>
-      </c>
-      <c r="B30">
-        <v>5886</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5887</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>711</v>
-      </c>
-      <c r="B31">
-        <v>5887</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5888</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>711</v>
-      </c>
-      <c r="B32">
-        <v>5888</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5889</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>711</v>
-      </c>
-      <c r="B33">
-        <v>5889</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5899</v>
+      </c>
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>711</v>
-      </c>
-      <c r="B34">
-        <v>5899</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5775</v>
+      </c>
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>711</v>
-      </c>
-      <c r="B35">
-        <v>5775</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5902</v>
+      </c>
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>711</v>
-      </c>
-      <c r="B36">
-        <v>5902</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5903</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>711</v>
-      </c>
-      <c r="B37">
-        <v>5903</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5904</v>
+      </c>
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>711</v>
-      </c>
-      <c r="B38">
-        <v>5904</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5905</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>711</v>
-      </c>
-      <c r="B39">
-        <v>5905</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5906</v>
+      </c>
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>711</v>
-      </c>
-      <c r="B40">
-        <v>5906</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5907</v>
+      </c>
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>711</v>
-      </c>
-      <c r="B41">
-        <v>5907</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5908</v>
+      </c>
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>711</v>
-      </c>
-      <c r="B42">
-        <v>5908</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6000</v>
+      </c>
+      <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="1">
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>711</v>
-      </c>
-      <c r="B43">
-        <v>6000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
         <v>0.3576388888888889</v>
       </c>
     </row>
